--- a/scripts/AddictO_Table_Specifications.xlsx
+++ b/scripts/AddictO_Table_Specifications.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -780,16 +780,6 @@
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>New</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
